--- a/Excel/excel/xls/T特效表.xlsx
+++ b/Excel/excel/xls/T特效表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="14805" windowHeight="8040"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,62 @@
   </si>
   <si>
     <t>particle2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃到能量点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变问号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfergate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护罩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,12 +146,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -137,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -172,7 +231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -393,7 +452,7 @@
     <col min="3" max="3" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,8 +462,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -415,7 +480,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -424,6 +489,108 @@
       </c>
       <c r="C4">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
